--- a/src/Chapter-5/04/复印纸.xlsx
+++ b/src/Chapter-5/04/复印纸.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGF\Documents\GitHub\TianXiaPy\PyExcel\src\Chapter-5\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F803E1B3-8110-479B-A63E-1B41CA2FEB7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FB817C2-074A-4A94-831B-1C75B23099DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{DB7D814F-9996-4506-9DAD-34D9B1E5BC61}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{60F088CE-8B42-402A-9947-ECC7D989D5D3}"/>
   </bookViews>
   <sheets>
     <sheet name="复印纸" sheetId="2" r:id="rId1"/>
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFDA7BD-87AA-4460-99ED-211462F1ED21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2496F236-79F4-40D4-80CB-E46F5C06AC8D}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -533,7 +533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8155C78D-F397-4F77-82B3-2A9A8273F7F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19321745-4973-4E68-8EEC-516A12E07FAC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
